--- a/output/confusion_matrix.xlsx
+++ b/output/confusion_matrix.xlsx
@@ -351,10 +351,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -362,10 +362,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/confusion_matrix.xlsx
+++ b/output/confusion_matrix.xlsx
@@ -351,10 +351,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.07692307692307693</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C1">
-        <v>0.75</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -362,10 +362,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8461538461538461</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -373,10 +373,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
   </sheetData>
